--- a/xlsx/Semantic MediaWiki_intext.xlsx
+++ b/xlsx/Semantic MediaWiki_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Semantic MediaWiki</t>
+    <t>软件开发</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Semantic MediaWiki</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%AF%AD%E8%A8%80</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://www.semantic-mediawiki.org/wiki/Semantic_MediaWiki_-_%E4%B8%BB%E9%A1%B5_%28zh-hans%29</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E6%8F%8F%E8%BF%B0%E6%A1%86%E6%9E%B6</t>
   </si>
   <si>
-    <t>資源描述框架</t>
+    <t>资源描述框架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E9%80%A3%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>鍵連資料</t>
+    <t>键连资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semantic_wiki</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A82.0</t>
   </si>
   <si>
-    <t>圖書館2.0</t>
+    <t>图书馆2.0</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%95%B0%E6%8D%AE</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E7%85%A7</t>
   </si>
   <si>
-    <t>參照</t>
+    <t>参照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Web_2.0</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E8%B3%87%E6%BA%90%E6%A8%99%E8%AD%98%E7%AC%A6</t>
   </si>
   <si>
-    <t>統一資源標識符</t>
+    <t>统一资源标识符</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RDF</t>
